--- a/Dataset Validation Report for HMW Dataset.xlsx
+++ b/Dataset Validation Report for HMW Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusharawedasingha/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37132ACA-978F-1B46-8A03-8C13631FCAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C805CA-D59B-744E-9312-A43D8557C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{7D6D270D-0D2B-7945-A549-C35621565DC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7D6D270D-0D2B-7945-A549-C35621565DC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="281">
   <si>
     <t>Name of the Video</t>
   </si>
@@ -867,6 +867,18 @@
   </si>
   <si>
     <t>Number of Repeittive Hand Movment Segments in One Video</t>
+  </si>
+  <si>
+    <t>Speed of the Movement</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
 </sst>
 </file>
@@ -986,6 +998,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,12 +1011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,9 +1032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1060,7 +1072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1166,7 +1178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1308,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1316,92 +1328,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF535E8-AAC9-494F-BEDA-DF6515694B5C}">
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="225.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" customWidth="1"/>
-    <col min="9" max="9" width="74" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="42" customWidth="1"/>
-    <col min="12" max="12" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="225.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="10" max="10" width="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="42" customWidth="1"/>
+    <col min="13" max="13" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1413,36 +1430,39 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1454,36 +1474,39 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1495,36 +1518,39 @@
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1536,36 +1562,39 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1577,36 +1606,39 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1618,36 +1650,39 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1660,35 +1695,38 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1701,35 +1739,38 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1742,35 +1783,38 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1783,35 +1827,38 @@
         <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1823,36 +1870,39 @@
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1865,35 +1915,38 @@
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1906,35 +1959,38 @@
         <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1946,36 +2002,39 @@
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1988,35 +2047,38 @@
         <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2029,35 +2091,38 @@
         <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2070,35 +2135,38 @@
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2111,35 +2179,38 @@
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2152,35 +2223,38 @@
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2193,35 +2267,38 @@
         <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2234,35 +2311,38 @@
         <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2275,35 +2355,38 @@
         <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2316,35 +2399,38 @@
         <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2357,35 +2443,38 @@
         <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H26" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="7">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2398,35 +2487,38 @@
         <v>5</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H27" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="7">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2439,35 +2531,38 @@
         <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="7">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2480,35 +2575,38 @@
         <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="7">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2521,35 +2619,38 @@
         <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="7">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2562,35 +2663,38 @@
         <v>5</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="7">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2603,35 +2707,38 @@
         <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="7">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2644,35 +2751,38 @@
         <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="7">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2685,35 +2795,38 @@
         <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="7">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -2726,35 +2839,38 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H35" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="7">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2767,35 +2883,38 @@
         <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="7">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2808,35 +2927,38 @@
         <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H37" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="7">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2849,35 +2971,38 @@
         <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="7">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2890,35 +3015,38 @@
         <v>5</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H39" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="7">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2931,35 +3059,38 @@
         <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="7">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2972,35 +3103,38 @@
         <v>5</v>
       </c>
       <c r="F41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H41" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="7">
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3013,35 +3147,38 @@
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3054,35 +3191,38 @@
         <v>5</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="7">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3095,35 +3235,38 @@
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="7">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3136,35 +3279,38 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H45" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="7">
         <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -3177,35 +3323,38 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H46" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="7">
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3218,35 +3367,38 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="7">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -3259,35 +3411,38 @@
         <v>6</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H48" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="7">
         <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3300,35 +3455,38 @@
         <v>6</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="7">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3341,35 +3499,38 @@
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="7">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3382,35 +3543,38 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="7">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -3423,35 +3587,38 @@
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="7">
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -3464,35 +3631,38 @@
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="7">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -3505,35 +3675,38 @@
         <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="7">
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -3546,35 +3719,38 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H55" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="7">
         <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -3587,35 +3763,38 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H56" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="7">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -3628,35 +3807,38 @@
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B58" s="7">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -3669,35 +3851,38 @@
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="10">
+      <c r="B59" s="7">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -3710,35 +3895,38 @@
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="7">
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -3751,35 +3939,38 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B61" s="7">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -3792,35 +3983,38 @@
         <v>6</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B62" s="7">
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -3833,35 +4027,38 @@
         <v>6</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H62" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B63" s="7">
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -3874,35 +4071,38 @@
         <v>6</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="7">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -3915,35 +4115,38 @@
         <v>6</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H64" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M64" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="7">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -3956,35 +4159,38 @@
         <v>6</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M65" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="10">
+      <c r="B66" s="7">
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -3997,35 +4203,38 @@
         <v>6</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M66" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="10">
+      <c r="B67" s="7">
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -4038,35 +4247,38 @@
         <v>6</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M67" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B68" s="7">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -4079,35 +4291,38 @@
         <v>6</v>
       </c>
       <c r="F68" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H68" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M68" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="7">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -4120,35 +4335,38 @@
         <v>6</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M69" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="10">
+      <c r="B70" s="7">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -4161,35 +4379,38 @@
         <v>6</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H70" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M70" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B71" s="7">
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -4202,35 +4423,38 @@
         <v>6</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H71" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M71" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="7">
         <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -4243,35 +4467,38 @@
         <v>6</v>
       </c>
       <c r="F72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H72" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M72" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="7">
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -4284,35 +4511,38 @@
         <v>6</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H73" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="10">
+      <c r="B74" s="7">
         <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -4325,35 +4555,38 @@
         <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H74" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M74" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="10">
+      <c r="B75" s="7">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -4366,35 +4599,38 @@
         <v>6</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G75" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="10">
+      <c r="B76" s="7">
         <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -4407,35 +4643,38 @@
         <v>6</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G76" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H76" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="7">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -4448,35 +4687,38 @@
         <v>6</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H77" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="7">
         <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -4489,35 +4731,38 @@
         <v>6</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H78" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M78" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="7">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -4530,35 +4775,38 @@
         <v>6</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H79" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M79" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="7">
         <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -4571,35 +4819,38 @@
         <v>6</v>
       </c>
       <c r="F80" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H80" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M80" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B81" s="7">
         <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -4612,35 +4863,38 @@
         <v>6</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H81" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M81" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="7">
         <v>2</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4653,35 +4907,38 @@
         <v>6</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H82" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B83" s="7">
         <v>2</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -4694,35 +4951,38 @@
         <v>6</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H83" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="10">
+      <c r="B84" s="7">
         <v>2</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -4735,35 +4995,38 @@
         <v>6</v>
       </c>
       <c r="F84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H84" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M84" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="10">
+      <c r="B85" s="7">
         <v>2</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -4776,35 +5039,38 @@
         <v>6</v>
       </c>
       <c r="F85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H85" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="7">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -4817,35 +5083,38 @@
         <v>6</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M86" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="7">
         <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -4858,35 +5127,38 @@
         <v>6</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H87" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M87" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="7">
         <v>2</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -4899,35 +5171,38 @@
         <v>6</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H88" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="7">
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -4940,35 +5215,38 @@
         <v>6</v>
       </c>
       <c r="F89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H89" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M89" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="10">
+      <c r="B90" s="7">
         <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -4981,35 +5259,38 @@
         <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H90" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M90" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B91" s="7">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -5022,35 +5303,38 @@
         <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M91" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N91" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="10">
+      <c r="B92" s="7">
         <v>2</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -5063,35 +5347,38 @@
         <v>7</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H92" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M92" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B93" s="7">
         <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -5104,35 +5391,38 @@
         <v>7</v>
       </c>
       <c r="F93" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H93" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="7">
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -5145,35 +5435,38 @@
         <v>7</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H94" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B95" s="7">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -5186,35 +5479,38 @@
         <v>7</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M95" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="10">
+      <c r="B96" s="7">
         <v>2</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -5227,35 +5523,38 @@
         <v>7</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H96" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M96" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="7">
         <v>2</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -5268,35 +5567,38 @@
         <v>7</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H97" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="7">
         <v>2</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -5309,35 +5611,38 @@
         <v>7</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H98" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="10">
+      <c r="B99" s="7">
         <v>2</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -5350,35 +5655,38 @@
         <v>7</v>
       </c>
       <c r="F99" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H99" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="7">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -5391,35 +5699,38 @@
         <v>7</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H100" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M100" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B101" s="7">
         <v>2</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -5432,35 +5743,38 @@
         <v>7</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H101" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M101" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N101" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="7">
         <v>2</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -5473,35 +5787,38 @@
         <v>7</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H102" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M102" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B103" s="7">
         <v>2</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -5514,35 +5831,38 @@
         <v>7</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H103" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="10">
+      <c r="B104" s="7">
         <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -5555,35 +5875,38 @@
         <v>7</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H104" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M104" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="10">
+      <c r="B105" s="7">
         <v>2</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -5596,35 +5919,38 @@
         <v>7</v>
       </c>
       <c r="F105" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H105" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M105" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="10">
+      <c r="B106" s="7">
         <v>2</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -5637,35 +5963,38 @@
         <v>7</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H106" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="10">
+      <c r="B107" s="7">
         <v>2</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -5678,35 +6007,38 @@
         <v>7</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H107" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B108" s="7">
         <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -5719,35 +6051,38 @@
         <v>7</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H108" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="10">
+      <c r="B109" s="7">
         <v>2</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -5760,35 +6095,38 @@
         <v>7</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H109" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M109" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="10">
+      <c r="B110" s="7">
         <v>2</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -5801,35 +6139,38 @@
         <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H110" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B111" s="7">
         <v>2</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -5842,35 +6183,38 @@
         <v>7</v>
       </c>
       <c r="F111" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H111" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M111" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="10">
+      <c r="B112" s="7">
         <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -5883,35 +6227,38 @@
         <v>7</v>
       </c>
       <c r="F112" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H112" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M112" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B113" s="7">
         <v>2</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -5924,35 +6271,38 @@
         <v>7</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H113" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M113" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="10">
+      <c r="B114" s="7">
         <v>2</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -5965,35 +6315,38 @@
         <v>7</v>
       </c>
       <c r="F114" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M114" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="7">
         <v>2</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -6006,35 +6359,38 @@
         <v>7</v>
       </c>
       <c r="F115" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H115" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="10">
+      <c r="B116" s="7">
         <v>2</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -6047,35 +6403,38 @@
         <v>7</v>
       </c>
       <c r="F116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M116" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="7">
         <v>2</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -6088,35 +6447,38 @@
         <v>7</v>
       </c>
       <c r="F117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H117" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="7">
         <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -6129,35 +6491,38 @@
         <v>7</v>
       </c>
       <c r="F118" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H118" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L118" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M118" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="7">
         <v>2</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -6170,35 +6535,38 @@
         <v>7</v>
       </c>
       <c r="F119" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H119" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L119" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M119" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="10">
+      <c r="B120" s="7">
         <v>2</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -6211,35 +6579,38 @@
         <v>7</v>
       </c>
       <c r="F120" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H120" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L120" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M120" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K120" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B121" s="7">
         <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -6252,35 +6623,38 @@
         <v>7</v>
       </c>
       <c r="F121" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H121" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K121" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M121" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="10">
+      <c r="B122" s="7">
         <v>2</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -6293,35 +6667,38 @@
         <v>7</v>
       </c>
       <c r="F122" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H122" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K122" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L122" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M122" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K122" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B123" s="7">
         <v>2</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -6334,35 +6711,38 @@
         <v>7</v>
       </c>
       <c r="F123" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G123" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H123" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L123" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M123" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="10">
+      <c r="B124" s="7">
         <v>2</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -6375,35 +6755,38 @@
         <v>7</v>
       </c>
       <c r="F124" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H124" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K124" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M124" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="10">
+      <c r="B125" s="7">
         <v>2</v>
       </c>
       <c r="C125" s="2" t="s">
@@ -6416,35 +6799,38 @@
         <v>7</v>
       </c>
       <c r="F125" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H125" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L125" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M125" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K125" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="7">
         <v>4</v>
       </c>
       <c r="C126" s="2" t="s">
@@ -6457,35 +6843,38 @@
         <v>7</v>
       </c>
       <c r="F126" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H126" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M126" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="7">
         <v>2</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -6498,35 +6887,38 @@
         <v>7</v>
       </c>
       <c r="F127" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H127" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K127" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M127" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="7">
         <v>2</v>
       </c>
       <c r="C128" s="2" t="s">
@@ -6539,35 +6931,38 @@
         <v>7</v>
       </c>
       <c r="F128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H128" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M128" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K128" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="10">
+      <c r="B129" s="7">
         <v>2</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -6580,35 +6975,38 @@
         <v>7</v>
       </c>
       <c r="F129" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H129" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K129" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L129" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M129" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K129" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="7">
         <v>2</v>
       </c>
       <c r="C130" s="2" t="s">
@@ -6621,53 +7019,58 @@
         <v>7</v>
       </c>
       <c r="F130" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H130" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="K130" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="L130" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M130" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N130" s="6" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
+  <mergeCells count="10">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{4EA3B6D4-4AFF-1844-B1B3-CCC35789872A}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{C2C8C18F-1007-B446-A688-B6BE0F5B115C}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{79D1D053-EB53-224B-8A8E-4570CC27AF26}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{373D0C37-7FEF-A645-B744-0197E2921961}"/>
-    <hyperlink ref="I4:I130" r:id="rId5" display="https://www.linkedin.com/in/haritha-amunugama-b54848184/?originalSubdomain=lk" xr:uid="{90C182F3-7EDA-3B46-BC1C-D6038F6707C9}"/>
-    <hyperlink ref="M3" r:id="rId6" xr:uid="{7869C119-5076-814B-93BB-699C1B129811}"/>
-    <hyperlink ref="M4:M130" r:id="rId7" display="https://www.linkedin.com/in/dr-darshani-hettiarachchi-60b02051/" xr:uid="{4FB17F6B-F764-5F47-A013-49AA96FB3DE8}"/>
-    <hyperlink ref="K3" r:id="rId8" xr:uid="{C1D02400-713A-5B4A-A3B3-E02D31411A7D}"/>
-    <hyperlink ref="K4:K130" r:id="rId9" display="https://www.linkedin.com/in/shalindi-psychologist/?originalSubdomain=lk" xr:uid="{33515BDB-B5EC-3541-AC92-095FD8BFC321}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{4EA3B6D4-4AFF-1844-B1B3-CCC35789872A}"/>
+    <hyperlink ref="G13" r:id="rId2" xr:uid="{C2C8C18F-1007-B446-A688-B6BE0F5B115C}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{79D1D053-EB53-224B-8A8E-4570CC27AF26}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{373D0C37-7FEF-A645-B744-0197E2921961}"/>
+    <hyperlink ref="J4:J130" r:id="rId5" display="https://www.linkedin.com/in/haritha-amunugama-b54848184/?originalSubdomain=lk" xr:uid="{90C182F3-7EDA-3B46-BC1C-D6038F6707C9}"/>
+    <hyperlink ref="N3" r:id="rId6" xr:uid="{7869C119-5076-814B-93BB-699C1B129811}"/>
+    <hyperlink ref="N4:N130" r:id="rId7" display="https://www.linkedin.com/in/dr-darshani-hettiarachchi-60b02051/" xr:uid="{4FB17F6B-F764-5F47-A013-49AA96FB3DE8}"/>
+    <hyperlink ref="L3" r:id="rId8" xr:uid="{C1D02400-713A-5B4A-A3B3-E02D31411A7D}"/>
+    <hyperlink ref="L4:L130" r:id="rId9" display="https://www.linkedin.com/in/shalindi-psychologist/?originalSubdomain=lk" xr:uid="{33515BDB-B5EC-3541-AC92-095FD8BFC321}"/>
+    <hyperlink ref="G3" r:id="rId10" xr:uid="{EE022304-4671-7D4F-8070-9B0B26F8D783}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
